--- a/2 - Language (Words)/[7-11] Word Scaling Analysis (linear)/Parameter Tables/Output-Parameters_for_English_Scaling.xlsx
+++ b/2 - Language (Words)/[7-11] Word Scaling Analysis (linear)/Parameter Tables/Output-Parameters_for_English_Scaling.xlsx
@@ -100,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="true"/>
@@ -165,177 +165,221 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-11.700211873079635</v>
+        <v>6.9531536356936074</v>
       </c>
       <c r="B2" s="0">
-        <v>6.3079012135065433</v>
+        <v>3.0292758261107453</v>
       </c>
       <c r="C2" s="0">
-        <v>-39.716928148328471</v>
+        <v>-9.8920303965864154</v>
       </c>
       <c r="D2" s="0">
-        <v>8.5373464482897106</v>
+        <v>3.9314550243527413</v>
       </c>
       <c r="E2" s="0">
-        <v>581.09080310434365</v>
+        <v>447.46645908506372</v>
       </c>
       <c r="F2" s="0">
-        <v>35.203621176472474</v>
+        <v>14.321797140994221</v>
       </c>
       <c r="G2" s="0">
-        <v>521.82068220338124</v>
+        <v>501.58152300241562</v>
       </c>
       <c r="H2" s="0">
-        <v>14.391347000346283</v>
+        <v>9.7108031156843939</v>
       </c>
       <c r="I2" s="0">
-        <v>0.00012210381572208738</v>
+        <v>0.10234359962463384</v>
       </c>
       <c r="J2" s="0">
-        <v>0.00012210381572208738</v>
+        <v>0.10234359962463384</v>
       </c>
       <c r="K2" s="0">
-        <v>29.08245647611523</v>
+        <v>9.5731655186720435</v>
       </c>
       <c r="L2" s="0">
-        <v>4.1546366394450329</v>
+        <v>1.3675950740960061</v>
       </c>
       <c r="M2" s="0">
-        <v>-0.99966548145264511</v>
+        <v>0.72372358143811788</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.20308141008130567</v>
+        <v>-0.5141729627567454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>69.443737036708143</v>
+        <v>-11.700210064007177</v>
       </c>
       <c r="B3" s="0">
-        <v>5.3452351454521727</v>
+        <v>6.3079014360083114</v>
       </c>
       <c r="C3" s="0">
-        <v>-31.05760027672401</v>
+        <v>-39.716940310561888</v>
       </c>
       <c r="D3" s="0">
-        <v>5.8253738655449103</v>
+        <v>8.5373458540983318</v>
       </c>
       <c r="E3" s="0">
-        <v>206.39406674884123</v>
+        <v>581.09079153160906</v>
       </c>
       <c r="F3" s="0">
-        <v>27.870526840939888</v>
+        <v>35.20362285781345</v>
       </c>
       <c r="G3" s="0">
-        <v>625.87789794545472</v>
+        <v>521.82070652978575</v>
       </c>
       <c r="H3" s="0">
-        <v>8.3636575236853687</v>
+        <v>14.391340796572425</v>
       </c>
       <c r="I3" s="0">
-        <v>0.12852181037159821</v>
+        <v>0.00012210381578882254</v>
       </c>
       <c r="J3" s="0">
-        <v>0.12852181037159821</v>
+        <v>0.00012210381578882254</v>
       </c>
       <c r="K3" s="0">
-        <v>26.563363105722555</v>
+        <v>29.082456476115009</v>
       </c>
       <c r="L3" s="0">
-        <v>3.7947661579603649</v>
+        <v>4.1546366394450009</v>
       </c>
       <c r="M3" s="0">
-        <v>0.99365226465751344</v>
+        <v>-0.99966548145264511</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.4565034527184329</v>
+        <v>-0.20308141008130567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>59.765556212009145</v>
+        <v>69.443739316870108</v>
       </c>
       <c r="B4" s="0">
-        <v>10.444335644043397</v>
+        <v>5.3452346388288836</v>
       </c>
       <c r="C4" s="0">
-        <v>-6.6506167431465153</v>
+        <v>-31.057603325474204</v>
       </c>
       <c r="D4" s="0">
-        <v>9.9544165677619869</v>
+        <v>5.8253760186883277</v>
       </c>
       <c r="E4" s="0">
-        <v>296.59720795725536</v>
+        <v>206.39405727167699</v>
       </c>
       <c r="F4" s="0">
-        <v>47.088438984278376</v>
+        <v>27.870524717388513</v>
       </c>
       <c r="G4" s="0">
-        <v>548.46424794916572</v>
+        <v>625.87789957676966</v>
       </c>
       <c r="H4" s="0">
-        <v>16.180736213134878</v>
+        <v>8.3636593425848478</v>
       </c>
       <c r="I4" s="0">
-        <v>0.09251691176484618</v>
+        <v>0.12852181037151866</v>
       </c>
       <c r="J4" s="0">
-        <v>0.09251691176484618</v>
+        <v>0.12852181037151866</v>
       </c>
       <c r="K4" s="0">
-        <v>30.395012352233653</v>
+        <v>26.56336310572247</v>
       </c>
       <c r="L4" s="0">
-        <v>4.3421446217476651</v>
+        <v>3.7947661579603529</v>
       </c>
       <c r="M4" s="0">
-        <v>0.97390442398624621</v>
+        <v>0.99365226465751344</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.2987198049993256</v>
+        <v>-0.4565034527184329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>28.6051239477077</v>
+        <v>59.765553578621372</v>
       </c>
       <c r="B5" s="0">
-        <v>3.3269250405586397</v>
+        <v>10.444333552757229</v>
       </c>
       <c r="C5" s="0">
-        <v>-5.4726944901849581</v>
+        <v>-6.6506159102473026</v>
       </c>
       <c r="D5" s="0">
-        <v>4.4574510142253887</v>
+        <v>9.9544160369388059</v>
       </c>
       <c r="E5" s="0">
-        <v>411.71361367338972</v>
+        <v>296.59722964402755</v>
       </c>
       <c r="F5" s="0">
-        <v>17.965765065117491</v>
+        <v>47.08842895911711</v>
       </c>
       <c r="G5" s="0">
-        <v>546.02421951242661</v>
+        <v>548.46424727478143</v>
       </c>
       <c r="H5" s="0">
-        <v>8.5243248092415573</v>
+        <v>16.180735901770582</v>
       </c>
       <c r="I5" s="0">
-        <v>0.13960283655250566</v>
+        <v>0.092516911764747425</v>
       </c>
       <c r="J5" s="0">
-        <v>0.13960283655250566</v>
+        <v>0.092516911764747425</v>
       </c>
       <c r="K5" s="0">
-        <v>8.5825075018291503</v>
+        <v>30.39501235223366</v>
       </c>
       <c r="L5" s="0">
-        <v>1.2260725002613071</v>
+        <v>4.342144621747666</v>
       </c>
       <c r="M5" s="0">
+        <v>0.97390442398624621</v>
+      </c>
+      <c r="N5" s="0">
+        <v>-0.2987198049993256</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>28.605119600408088</v>
+      </c>
+      <c r="B6" s="0">
+        <v>3.3269238562436927</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-5.4726940753706232</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4.4574508795781949</v>
+      </c>
+      <c r="E6" s="0">
+        <v>411.71364427308748</v>
+      </c>
+      <c r="F6" s="0">
+        <v>17.965757382521478</v>
+      </c>
+      <c r="G6" s="0">
+        <v>546.02421888226456</v>
+      </c>
+      <c r="H6" s="0">
+        <v>8.5243247649291654</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.13960283655242786</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.13960283655242786</v>
+      </c>
+      <c r="K6" s="0">
+        <v>8.5825075018291592</v>
+      </c>
+      <c r="L6" s="0">
+        <v>1.2260725002613084</v>
+      </c>
+      <c r="M6" s="0">
         <v>0.98379559669538819</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N6" s="0">
         <v>-0.3720243894333069</v>
       </c>
     </row>
